--- a/modelo6/origen/ficheros/FICHA_RESUMEN_PLACO23 (Modelo6).xlsx
+++ b/modelo6/origen/ficheros/FICHA_RESUMEN_PLACO23 (Modelo6).xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\catastro\modelo6\origen\ficheros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1E95A5-61C0-4B81-BBE5-64211714A585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E78B42-E08F-4457-BE61-AA12D63E7B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="19185" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FICHA RESUMEN PLACO" sheetId="7" r:id="rId1"/>
@@ -1397,8 +1397,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D40-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1502,19 +1502,19 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>165101</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>114300</xdr:rowOff>
+          <xdr:rowOff>130175</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>12701</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>333375</xdr:rowOff>
+          <xdr:rowOff>369887</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6151" name="Check Box 7" hidden="1">
+            <xdr:cNvPr id="6151" name="CheckBox1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6151"/>
@@ -1539,18 +1539,9 @@
               <a:noFill/>
             </a:ln>
             <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
+                  <a:noFill/>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
                   <a:tailEnd/>
@@ -1854,13 +1845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AN78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:AA11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4092,33 +4083,32 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="6151" r:id="rId7" name="Check Box 7">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0" altText="">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>114300</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>304800</xdr:colOff>
-                    <xdr:row>19</xdr:row>
-                    <xdr:rowOff>333375</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6151" r:id="rId7" name="CheckBox1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="G20" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>371475</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6151" r:id="rId7" name="CheckBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>